--- a/FileDownload/Example.xlsx
+++ b/FileDownload/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\772\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30470100-BEEA-4289-BE4C-319DF7E4B0C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6F50E5-9A9D-4AC2-AFFD-9EF2AA36A248}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{9F54F916-CB6A-421A-8CE0-5306CCBB9BCC}"/>
   </bookViews>
@@ -25,30 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>SID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>學號</t>
   </si>
   <si>
-    <t>Sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>學生姓名</t>
   </si>
   <si>
-    <t>SPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>性別</t>
   </si>
 </sst>
 </file>
@@ -448,7 +433,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -461,20 +446,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
